--- a/定金项目.xlsx
+++ b/定金项目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\杂\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Decoration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3BA12E-A29F-450A-825D-13DC7BC843CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5ED4E0E-4931-422A-A7D7-EB1702250417}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7905" xr2:uid="{C6151497-BDF4-49D0-8DB2-D778B4993DD3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>已交定金项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>签单前随时可退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受520优惠活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵扣消费金额，样式可换，可替换优惠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B6C0E8-7B68-42BC-9531-61D4D3861BF8}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,16 +494,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -551,6 +570,23 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/定金项目.xlsx
+++ b/定金项目.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Decoration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\装修计划\Decoration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5ED4E0E-4931-422A-A7D7-EB1702250417}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7905" xr2:uid="{C6151497-BDF4-49D0-8DB2-D778B4993DD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>已交定金项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,13 +103,33 @@
   </si>
   <si>
     <t>可抵扣消费金额，样式可换，可替换优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜门颜色、台面颜色可换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用时签订正式合同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,12 +185,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -479,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B6C0E8-7B68-42BC-9531-61D4D3861BF8}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,16 +544,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -586,6 +636,26 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/定金项目.xlsx
+++ b/定金项目.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>已交定金项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,50 @@
   </si>
   <si>
     <t>使用时签订正式合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉檀香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,16 +591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -656,6 +703,76 @@
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>500</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5">
+        <v>250</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -664,5 +781,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>